--- a/data/financial_statements/socf/DHR.xlsx
+++ b/data/financial_statements/socf/DHR.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,1545 +590,1581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2232000000</v>
+      </c>
+      <c r="C2">
         <v>1572000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1680000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1725000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1788000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1158000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1785000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1702000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1241000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>883000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>927000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>595000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1274900000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>668000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>731300000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>333800000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>746900000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>663700000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>673800000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>566600000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>856600000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>572100000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>557300000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>506100000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>747000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>391600000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>656700000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>758400000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>688600000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1403300000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>695700000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>569800000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>661700000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>680600000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>676400000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>579700000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>789300000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>597000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>616800000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>691900000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>565000000</v>
+      </c>
+      <c r="C3">
         <v>540000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>552000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>565000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>600000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>571000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>525000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>531000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>548000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>712000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>675000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>297000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>299200000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>295400000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>298300000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>296100000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>201100000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>321500000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>334600000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>320800000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>196700000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>311400000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>303200000</v>
-      </c>
-      <c r="X3">
-        <v>305600000</v>
       </c>
       <c r="Y3">
         <v>305600000</v>
       </c>
       <c r="Z3">
+        <v>305600000</v>
+      </c>
+      <c r="AA3">
         <v>277200000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>277600000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>267700000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>272000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>136300000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>237000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>235500000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>53600000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>204400000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>235400000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>224700000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>188900000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>225300000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>219600000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>216800000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>-408000000</v>
+      </c>
+      <c r="C4">
         <v>153000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>199000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>104000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-145000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>466000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-146000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-48000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>584000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>55000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>-415000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>45000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>-732500000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>76700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>101600000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>24200000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-92600000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>38200000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>40100000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>33300000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-421000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>33400000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>87100000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>11300000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-338400000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>189400000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>97000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>-200700000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>-33400000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>-750100000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>40700000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>12500000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>240800000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>14900000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6800000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>29000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>112200000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>29600000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>28300000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>-135400000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>-343000000</v>
+      </c>
+      <c r="C5">
         <v>11000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-225000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>80000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-459000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-81000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>-130000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>59000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-476000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-62000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>92000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>182000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-134700000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-42700000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>-52200000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>72600000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-183600000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-31000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>-59400000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>219000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-217100000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>2500000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-96200000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>168300000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-88300000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-33300000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-145000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>83500000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-84300000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>83800000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-102900000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>104200000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>63800000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>52200000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-152800000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-5900000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-29800000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>23500000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-134800000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>105900000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>243000000</v>
+      </c>
+      <c r="C6">
         <v>-61000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-237000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-431000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-64000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-146000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>-121000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-171000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>120000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>24000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>-92000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>-175000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>142900000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>4900000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>-45200000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-124600000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>121400000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>-58300000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>-68200000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>-128900000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>101300000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>-52800000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>11500000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>-56900000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>147900000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>-33600000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>-19300000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>-85600000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>187300000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>61800000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>8500000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>-111100000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>157900000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>-30300000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>8200000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>-67000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>162500000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>-6500000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>-23100000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>-89400000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>185000000</v>
+      </c>
+      <c r="C7">
         <v>-169000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>120000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-131000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>449000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>170000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-32000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-38000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>334000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>53000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>-170000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>10000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>66600000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>-26000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>-29700000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>7100000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>157500000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>-15500000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>35600000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>51400000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-5400000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>55600000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-13200000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-90900000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>116200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4600000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>73300000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-116000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>192500000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>-67400000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>10000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-84800000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>142500000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>-11800000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>45800000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-96800000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>75600000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>17700000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>71900000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>10100000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>41000000</v>
+      </c>
+      <c r="C8">
         <v>-31000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-12000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>78000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>270000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-63000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>335000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-403000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-196000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>84000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>438000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-207000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>382300000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-22000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>111100000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-73400000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>454500000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-58500000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>18300000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>-358300000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>578800000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>94100000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>34000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>-342700000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-6700000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-45400000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>284400000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>18400000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>292400000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-32400000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>134500000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>-229300000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>172400000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>79000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>126700000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-188700000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>49700000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>40900000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>50700000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>-207000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>26000000</v>
+      </c>
+      <c r="C9">
         <v>-5000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-77000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-22000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-106000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>-41000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-96000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>239000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>66000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-26000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-10000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>72000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>-187100000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11300000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>56300000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>167500000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-167600000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>59400000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>61200000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>125000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>-255200000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>56100000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>126800000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>59400000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-234300000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>67700000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>57100000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>47100000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-283500000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>117300000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>70500000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>26800000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>-253300000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>27100000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>45200000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>36200000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>-270200000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>43900000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>69800000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>43600000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2541000000</v>
+      </c>
+      <c r="C10">
         <v>2010000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2000000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1968000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2333000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2034000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2120000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1871000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2221000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1723000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1445000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>819000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1111600000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>965600000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1171500000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>703300000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1237600000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>919500000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1036000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>828900000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>834700000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>1072400000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1010500000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>560200000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>649000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>818200000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1281800000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>772800000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>1231600000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>952600000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>1094000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>523600000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>1239400000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>1016100000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>991700000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>511200000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>1078200000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>971400000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>899200000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>636500000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-329000000</v>
+      </c>
+      <c r="C11">
         <v>-277000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-289000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-248000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-420000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-318000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-304000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-239000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-315000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-187000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-155000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-132000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-179000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-161300000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-143100000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-139600000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-138300000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-149400000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-152800000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-137500000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-124700000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-137000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-118600000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-157900000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-164900000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-146600000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-145700000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-122600000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-100900000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-98400000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-136200000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-117000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-56100000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-130700000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-147700000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-130900000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-146300000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-139300000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-136200000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-116300000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-333000000</v>
+      </c>
+      <c r="C12">
         <v>-227000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-60000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-17000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-333000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-9563000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-646000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-419000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-152000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-83000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-1000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-20735000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>100000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-4500000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-18400000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-308200000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>300000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-105500000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-2067800000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-273800000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-18100000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-93900000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-4780500000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-6900000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>266800000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-94700000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-40700000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-13571300000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-110200000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-482600000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-2157300000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>91700000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-443900000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-162800000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>944700000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-546000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-310500000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-12100000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC13">
         <v>264800000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>-169000000</v>
+      </c>
+      <c r="C14">
         <v>-25000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-54000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>-257000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-128000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-184000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-119000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-351000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-114000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-71000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>719000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-37000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-77600000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-71100000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-49100000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-43200000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-85000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-61100000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>200000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>21900000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>137900000</v>
       </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
       <c r="AD14">
         <v>0</v>
       </c>
@@ -2022,547 +2172,562 @@
         <v>0</v>
       </c>
       <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
         <v>-87100000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-105000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>25000000</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
       <c r="AM14">
         <v>0</v>
       </c>
       <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
         <v>692000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>15000000</v>
+      </c>
+      <c r="C15">
         <v>14000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>19000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>17000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>16000000</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>12000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-24000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>36000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-9500000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-7700000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-18300000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-7500000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-74000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-22200000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-7100000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-54900000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>100000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3300000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-5800000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>21900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-100000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-30500000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-39200000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-118800000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-83300000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-500000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-4000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-312700000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-5100000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2200000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>9000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-86900000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2300000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-8900000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-816000000</v>
+      </c>
+      <c r="C16">
         <v>-515000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-400000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-503000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-879000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-10048000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-1067000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-993000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-581000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-329000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>539000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-20868000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-266000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-244600000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-228900000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-498500000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-297000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-286700000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-2242600000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-122700000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-315500000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-155000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-209200000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-163700000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-4923500000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-153600000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-174200000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>8300000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-260400000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-13753000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-246900000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-690700000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-2446100000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-149100000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-564400000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-284700000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>19500000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-683000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-443700000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>554700000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-704000000</v>
+      </c>
+      <c r="C17">
         <v>-50000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-944000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>10000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-1154000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>3483000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>14000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-280000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>-1252000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>-1212000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-4198000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4762000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>5149700000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>7604600000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>681800000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-86100000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-820200000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-648000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1262800000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-236600000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-467300000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-931600000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-831000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-434900000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>4425900000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-3006300000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2373900000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-815100000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-1938100000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>11358400000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-13000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>-248700000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>313700000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>800000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-419100000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2100000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>3800000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-656500000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-313600000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-764800000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>16000000</v>
+      </c>
+      <c r="C18">
         <v>38000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>23000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>-46000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>23000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>38000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>37000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-12000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>28000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>56000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>1788000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>10000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>657800000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>32000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>45700000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1480500000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>18700000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>27600000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>26500000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>23200000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>19800000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>13200000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>15300000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>-43900000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>7900000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>11800000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>100900000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>43900000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>50900000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>66600000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>69900000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>61600000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>57900000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>14100000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>30900000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>30000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>28700000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>38700000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>55700000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>54300000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>1668000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>400000</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>1599600000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-203000000</v>
+      </c>
+      <c r="C20">
         <v>-204000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-220000000</v>
-      </c>
-      <c r="D20">
-        <v>-191000000</v>
       </c>
       <c r="E20">
         <v>-191000000</v>
@@ -2574,91 +2739,91 @@
         <v>-191000000</v>
       </c>
       <c r="H20">
+        <v>-191000000</v>
+      </c>
+      <c r="I20">
         <v>-169000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-170000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-162000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-145000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-138000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-142000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-151100000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-121700000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>-112200000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-111800000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-111900000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-111800000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>-97500000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-97300000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-97100000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-97300000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-86600000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-86500000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-110500000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-110100000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>-92700000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-92500000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-95700000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-95500000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-70400000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-70300000</v>
-      </c>
-      <c r="AH20">
-        <v>-70000000</v>
       </c>
       <c r="AI20">
         <v>-70000000</v>
       </c>
       <c r="AJ20">
-        <v>-17400000</v>
+        <v>-70000000</v>
       </c>
       <c r="AK20">
         <v>-17400000</v>
@@ -2667,97 +2832,100 @@
         <v>-17400000</v>
       </c>
       <c r="AM20">
+        <v>-17400000</v>
+      </c>
+      <c r="AN20">
         <v>-17300000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-15000000</v>
+      </c>
+      <c r="C21">
         <v>-14000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-19000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>-47000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-100000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-25000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-26000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-2000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>38000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-911400000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>642200000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-800000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-4000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-1400000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-400000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-5400000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-10800000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-9100000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-13400000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-12000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>-25300000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-300000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-673400000</v>
       </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
       <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>-26700000</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
       <c r="AD21">
         <v>0</v>
       </c>
@@ -2765,381 +2933,393 @@
         <v>0</v>
       </c>
       <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
         <v>-3300000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>-20900000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>-906000000</v>
+      </c>
+      <c r="C22">
         <v>-230000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-1160000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-274000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-1422000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>3305000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-139000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-449000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-1420000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>-1319000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>-889000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4634000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>4754500000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>8127700000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>605000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2877800000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>-914700000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>-732700000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>1172100000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>-321700000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-553900000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-1028900000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>-925000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>-590700000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>4347000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>-3778400000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>2364700000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>-890600000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>-1979700000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>11329300000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-38600000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-260800000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>280400000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>-55100000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>-458200000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>14700000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>15100000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>-635200000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-275200000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>-710500000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>26000000</v>
+      </c>
+      <c r="C23">
         <v>-99000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-173000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-60000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>2000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-61000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>78000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-134000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>127000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>74000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>76000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-129000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>59600000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-30200000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>-24000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>39600000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-13800000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-27900000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-107200000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>30900000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>16400000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>33700000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>46200000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>34400000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-80200000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-12400000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-39000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>-17000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-34200000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-37400000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>22500000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-66700000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>-93400000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-107700000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>5500000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>-9900000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>6800000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>17500000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>-6100000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-8700000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>845000000</v>
+      </c>
+      <c r="C24">
         <v>1166000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>267000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1131000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>34000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>-4770000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>992000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>295000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>347000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>149000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1171000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>-15544000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>5659700000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>8818500000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>1523600000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3122200000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>12100000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>-127800000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-141700000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>415400000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-18300000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-77800000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>-77500000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>-159800000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-7700000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>-3126200000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>3433300000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>-126500000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>-1042700000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>-1508500000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>831000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>-494600000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>-1019700000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>704200000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>-25400000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>231300000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>1119600000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>-329300000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>174200000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>472000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3148,11 +3328,11 @@
         <v>0</v>
       </c>
       <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>2586000000</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
@@ -3160,11 +3340,11 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>6035000000</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25">
         <v>0</v>
       </c>
@@ -3172,35 +3352,35 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>19912000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>200000</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>787800000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-300000</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
         <v>630300000</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
         <v>0</v>
       </c>
@@ -3208,11 +3388,11 @@
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <v>963700000</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
       <c r="Z25">
         <v>0</v>
       </c>
@@ -3220,11 +3400,11 @@
         <v>0</v>
       </c>
       <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>790800000</v>
       </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
         <v>0</v>
       </c>
@@ -3232,11 +3412,11 @@
         <v>0</v>
       </c>
       <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
         <v>3005600000</v>
       </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
       <c r="AH25">
         <v>0</v>
       </c>
@@ -3244,11 +3424,11 @@
         <v>0</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
         <v>3115200000</v>
       </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
         <v>0</v>
       </c>
@@ -3256,265 +3436,274 @@
         <v>0</v>
       </c>
       <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
         <v>1678700000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>845000000</v>
+      </c>
+      <c r="C26">
         <v>1166000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>267000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>3717000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>34000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>-4770000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>992000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6330000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>347000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>149000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>1171000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>4368000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>5659900000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>8818500000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1523600000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3910000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>11800000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-127800000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-141700000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>1045700000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-18300000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-77800000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-77500000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>803900000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-7700000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-3126200000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>3433300000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>664300000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-1042700000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-1508500000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>831000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>2511000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-1019700000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>704200000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>-25400000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>3346500000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>1119600000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-329300000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>174200000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>2150700000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>66000000</v>
+      </c>
+      <c r="C27">
         <v>89000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>101000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>80000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>59000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>52000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>53000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>54000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>50000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>45000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>47000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>45000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>41500000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>41000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>41400000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>35100000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>26400000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>38200000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>40100000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>33300000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>22300000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>33400000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>37800000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>33600000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>33500000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>31400000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>35300000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>29600000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>26900000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>18400000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>28200000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>30300000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>1700000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>28000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>26000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>29000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>23900000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>29600000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>28300000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>27800000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-203000000</v>
+      </c>
+      <c r="C28">
         <v>-204000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-220000000</v>
-      </c>
-      <c r="D28">
-        <v>-191000000</v>
       </c>
       <c r="E28">
         <v>-191000000</v>
@@ -3526,91 +3715,91 @@
         <v>-191000000</v>
       </c>
       <c r="H28">
+        <v>-191000000</v>
+      </c>
+      <c r="I28">
         <v>-169000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-170000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-162000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-145000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-138000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-142000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-151100000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-121700000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-112200000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-111800000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-111900000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-111800000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-97500000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-97300000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-97100000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-97300000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-86600000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-86500000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-110500000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>-110100000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-92700000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-92500000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-95700000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-95500000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-70400000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-70300000</v>
-      </c>
-      <c r="AH28">
-        <v>-70000000</v>
       </c>
       <c r="AI28">
         <v>-70000000</v>
       </c>
       <c r="AJ28">
-        <v>-17400000</v>
+        <v>-70000000</v>
       </c>
       <c r="AK28">
         <v>-17400000</v>
@@ -3619,326 +3808,335 @@
         <v>-17400000</v>
       </c>
       <c r="AM28">
+        <v>-17400000</v>
+      </c>
+      <c r="AN28">
         <v>-17300000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>0.0722</v>
+      </c>
+      <c r="C29">
         <v>0.07489999999999999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.0873</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.08599999999999999</v>
       </c>
-      <c r="E29">
-        <v>0.0842</v>
-      </c>
       <c r="F29">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="G29">
         <v>0.09669999999999999</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.0683</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.08690000000000001</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.0979</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.1054</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>0.1351</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>0.2239</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0.018</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.022</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.0456</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.0595</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>0.1232</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>0.1276</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>0.1491</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.1395</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.1508</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.1673</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>0.1823</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>0.1503</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>0.16</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>0.1204</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>0.1495</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>0.2328</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>0.2285</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>0.2178</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-0.0063</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>0.0119</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.0086</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-0.0262</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>-0.0072</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>0.0019</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>0.007900000000000001</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>0.0395</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>0.0521</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>0.06950000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>152000000</v>
+      </c>
+      <c r="C30">
         <v>-255000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-431000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-426000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>90000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-161000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>-44000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-314000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-152000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>73000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>258000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-118000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>270000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>-74500000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>40300000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>49200000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>382200000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>-103900000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-12500000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-91800000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>202400000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>155500000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>62900000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-262800000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-65200000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-40000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>250500000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>-52600000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>304400000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>163100000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>120600000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>-294200000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>283300000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>116200000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>73100000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-322200000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-12200000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>119500000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>34500000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-136800000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>-169000000</v>
+      </c>
+      <c r="C31">
         <v>-25000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-54000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-257000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-128000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-184000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-119000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-351000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>-114000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>-71000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>719000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-37000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-77600000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>-71100000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>-49100000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-43200000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>-85000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>-61100000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>200000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>21900000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>137900000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>264800000</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
       <c r="AD31">
         <v>0</v>
       </c>
@@ -3946,265 +4144,274 @@
         <v>0</v>
       </c>
       <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
         <v>-87100000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-105000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>25000000</v>
       </c>
-      <c r="AL31">
-        <v>0</v>
-      </c>
       <c r="AM31">
         <v>0</v>
       </c>
       <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
         <v>692000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
+        <v>16000000</v>
+      </c>
+      <c r="C32">
         <v>38000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>23000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>-46000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>23000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>38000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>37000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-12000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>28000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>56000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3456000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>10000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>658200000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>32000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>45700000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>3080100000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>18700000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>27600000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>26500000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>23200000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>19800000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>13200000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>15300000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-43900000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>7900000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>11800000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>100900000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>43900000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>50900000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>66600000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>69900000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>61600000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>57900000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>14100000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>30900000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>30000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>28700000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>38700000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>55700000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>54300000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>16000000</v>
+      </c>
+      <c r="C33">
         <v>38000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>23000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-46000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>23000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>38000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>37000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-12000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>28000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>56000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3456000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>10000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>658200000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>32000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>45700000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>3080100000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>18700000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>27600000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>26500000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>23200000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>19800000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>13200000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>15300000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-43900000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>7900000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>11800000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>100900000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>43900000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>50900000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>66600000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>69900000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>61600000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>57900000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>14100000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>30900000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>30000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>28700000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>38700000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>55700000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>54300000</v>
       </c>
     </row>
